--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 77,84</t>
+          <t>24,53; 78,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,97; 93,93</t>
+          <t>41,45; 93,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,71; 82,41</t>
+          <t>44,09; 82,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,93; 83,03</t>
+          <t>61,96; 82,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,96; 83,88</t>
+          <t>66,42; 84,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,42; 81,1</t>
+          <t>66,68; 80,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>65,56; 80,52</t>
+          <t>64,96; 80,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,3; 80,64</t>
+          <t>65,81; 80,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,04; 79,08</t>
+          <t>67,53; 79,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,19; 80,11</t>
+          <t>62,55; 80,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,68; 79,81</t>
+          <t>58,25; 79,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,05; 77,9</t>
+          <t>64,26; 77,59</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,28; 83,18</t>
+          <t>66,05; 82,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,56; 86,34</t>
+          <t>71,57; 86,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,45; 83,17</t>
+          <t>72,31; 82,86</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>68,94; 77,38</t>
+          <t>69,16; 77,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>70,44; 79,01</t>
+          <t>70,53; 78,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71,07; 76,89</t>
+          <t>70,92; 76,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>76,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74,82%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,84%</t>
+          <t>72,67%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 78,89</t>
+          <t>67,29; 84,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,45; 93,73</t>
+          <t>58,16; 79,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,09; 82,28</t>
+          <t>65,63; 79,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,26%</t>
+          <t>73,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>73,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>73,57%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,96; 82,82</t>
+          <t>64,81; 81,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,42; 84,06</t>
+          <t>61,18; 79,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,68; 80,99</t>
+          <t>66,83; 79,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>75,51%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72,52%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>74,1%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>73,66%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>73,92%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,96; 80,63</t>
+          <t>62,85; 88,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,81; 80,74</t>
+          <t>63,41; 80,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,53; 79,05</t>
+          <t>66,91; 84,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>80,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>75,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>77,77%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,55; 80,0</t>
+          <t>73,19; 86,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,25; 79,02</t>
+          <t>66,12; 82,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,26; 77,59</t>
+          <t>71,28; 82,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>74,6%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,05; 82,61</t>
+          <t>71,87; 82,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>71,57; 86,37</t>
+          <t>68,13; 77,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,31; 82,86</t>
+          <t>71,32; 78,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>73,46%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>74,71%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>74,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>69,16; 77,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>70,53; 78,98</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>70,92; 76,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
